--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>整体任务</t>
   </si>
   <si>
-    <t>细分内容</t>
+    <t>细分任务</t>
   </si>
   <si>
     <t>时间</t>
@@ -43,7 +41,8 @@
     <t>完成情况</t>
   </si>
   <si>
-    <t>基本完成记分牌算法模拟</t>
+    <t>v1.0版本
+基本记分牌算法及测试</t>
   </si>
   <si>
     <t>项目初步构建</t>
@@ -71,6 +70,32 @@
   </si>
   <si>
     <t>将现有项目内容部署到github上，撰写项目文档的大致框架。之后就能通过github的版本控制，进行项目撰写内容的相应记录。</t>
+  </si>
+  <si>
+    <t>部分代码编写</t>
+  </si>
+  <si>
+    <t>6月18日至
+6月21日</t>
+  </si>
+  <si>
+    <t>由于每天花在这部分的上的时间较为碎片化，无法很好的做整体的时间区分，因此合并为一个细分任务。
+完成读操作数、执行、写结果部分的函数编写，并在编写过程中，进一步修改整体数据结构。</t>
+  </si>
+  <si>
+    <t>算法模拟器整体编写</t>
+  </si>
+  <si>
+    <t>6月22日晚</t>
+  </si>
+  <si>
+    <t>完成记分牌算法整体基本代码编写，能够实现在输入指令队列的情况下，输出每一个时钟周期结束时，记分牌算法内数据的值</t>
+  </si>
+  <si>
+    <t>算法测试编写</t>
+  </si>
+  <si>
+    <t>撰写测试代码，实现用户不读懂代码也能够进行测试，判断当前输入输出的正确性。</t>
   </si>
 </sst>
 </file>
@@ -430,12 +455,147 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,34 +734,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +854,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,13 +1194,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.5398230088496" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5132743362832" style="1" customWidth="1"/>
@@ -1022,96 +1209,100 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="47" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="37" customHeight="1" spans="2:4">
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="37" customHeight="1" spans="1:4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="61" customHeight="1" spans="2:4">
-      <c r="B4" s="1" t="s">
+    <row r="4" ht="61" customHeight="1" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="27.75" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>整体任务</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>撰写测试代码，实现用户不读懂代码也能够进行测试，判断当前输入输出的正确性。</t>
+  </si>
+  <si>
+    <t>完成项目文档全篇撰写。</t>
+  </si>
+  <si>
+    <t>项目汇报ppt制作</t>
+  </si>
+  <si>
+    <t>完成项目汇报ppt制作。</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,10 +883,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1194,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.5398230088496" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5132743362832" style="1" customWidth="1"/>
@@ -1209,7 +1233,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1285,17 +1309,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" ht="27" spans="1:4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="14.25"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45466</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15">
+        <v>45467</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
